--- a/Rabota_18/Rabota_18/Rabota_18/bin/DebugRabota_18.xlsx
+++ b/Rabota_18/Rabota_18/Rabota_18/bin/DebugRabota_18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="11460" windowHeight="6912"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="11136"/>
   </bookViews>
   <sheets>
     <sheet name="Лист4" sheetId="4" r:id="rId1"/>
@@ -152,13 +152,13 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
